--- a/クラス図.xlsx
+++ b/クラス図.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share\001_就職活動\020_ゲームプロジェクト\Cocos2dx\ChickWayHome\01_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC0EBBD-4DF8-4974-A1A4-9681EE761178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE469B61-E094-4857-8AD9-A8C1D641BD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス図" sheetId="3" r:id="rId1"/>
-    <sheet name="簡易版" sheetId="1" r:id="rId2"/>
-    <sheet name="詳細版" sheetId="2" r:id="rId3"/>
+    <sheet name="簡易版" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="詳細版" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス図!$A$1:$W$105</definedName>
@@ -656,6 +656,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -681,15 +690,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13999,7 +13999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB852042-9CF8-40C9-B3D4-88D70EAA5002}">
   <dimension ref="Q4:Q6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="25" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="25" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -14033,7 +14035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14175,44 +14179,44 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
@@ -14374,32 +14378,32 @@
       </c>
     </row>
     <row r="37" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="P37" s="20" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="P37" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="22"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="25"/>
     </row>
     <row r="38" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="11"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -14407,51 +14411,51 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="23" t="s">
+      <c r="P38" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="25"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="28"/>
       <c r="V38" s="10"/>
     </row>
     <row r="39" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="P39" s="26" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="P39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="28"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="19"/>
     </row>
     <row r="40" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="P40" s="17" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="P40" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="19"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="22"/>
     </row>
     <row r="41" spans="3:36" x14ac:dyDescent="0.2">
       <c r="R41" s="9"/>
@@ -14463,27 +14467,27 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="Z42" s="2"/>
-      <c r="AE42" s="20" t="s">
+      <c r="AE42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AF42" s="21"/>
-      <c r="AG42" s="21"/>
-      <c r="AH42" s="21"/>
-      <c r="AI42" s="21"/>
-      <c r="AJ42" s="22"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="24"/>
+      <c r="AH42" s="24"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="25"/>
     </row>
     <row r="43" spans="3:36" x14ac:dyDescent="0.2">
       <c r="V43" s="9"/>
       <c r="Z43" s="2"/>
       <c r="AD43" s="3"/>
-      <c r="AE43" s="23" t="s">
+      <c r="AE43" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AF43" s="24"/>
-      <c r="AG43" s="24"/>
-      <c r="AH43" s="24"/>
-      <c r="AI43" s="24"/>
-      <c r="AJ43" s="25"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="28"/>
     </row>
     <row r="44" spans="3:36" x14ac:dyDescent="0.2">
       <c r="V44" s="5"/>
@@ -14491,134 +14495,117 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="5"/>
-      <c r="AE44" s="26" t="s">
+      <c r="AE44" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="27"/>
-      <c r="AI44" s="27"/>
-      <c r="AJ44" s="28"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="19"/>
     </row>
     <row r="45" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="T45" s="20" t="s">
+      <c r="T45" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="22"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="25"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="3"/>
-      <c r="AE45" s="17" t="s">
+      <c r="AE45" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF45" s="18"/>
-      <c r="AG45" s="18"/>
-      <c r="AH45" s="18"/>
-      <c r="AI45" s="18"/>
-      <c r="AJ45" s="19"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+      <c r="AJ45" s="22"/>
     </row>
     <row r="46" spans="3:36" x14ac:dyDescent="0.2">
       <c r="S46" s="3"/>
-      <c r="T46" s="23" t="s">
+      <c r="T46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="25"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="28"/>
       <c r="AA46" s="5"/>
     </row>
     <row r="47" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="T47" s="26" t="s">
+      <c r="T47" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="28"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="19"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="8"/>
     </row>
     <row r="48" spans="3:36" x14ac:dyDescent="0.2">
-      <c r="T48" s="17" t="s">
+      <c r="T48" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="19"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="22"/>
       <c r="AA48" s="9"/>
-      <c r="AE48" s="20" t="s">
+      <c r="AE48" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AF48" s="21"/>
-      <c r="AG48" s="21"/>
-      <c r="AH48" s="21"/>
-      <c r="AI48" s="21"/>
-      <c r="AJ48" s="22"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="24"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="24"/>
+      <c r="AJ48" s="25"/>
     </row>
     <row r="49" spans="27:36" x14ac:dyDescent="0.2">
       <c r="AA49" s="3"/>
       <c r="AB49" s="10"/>
       <c r="AD49" s="3"/>
-      <c r="AE49" s="23" t="s">
+      <c r="AE49" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="24"/>
-      <c r="AH49" s="24"/>
-      <c r="AI49" s="24"/>
-      <c r="AJ49" s="25"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="27"/>
+      <c r="AJ49" s="28"/>
     </row>
     <row r="50" spans="27:36" x14ac:dyDescent="0.2">
       <c r="AA50" s="3"/>
       <c r="AB50" s="11"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="5"/>
-      <c r="AE50" s="26" t="s">
+      <c r="AE50" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="28"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="19"/>
     </row>
     <row r="51" spans="27:36" x14ac:dyDescent="0.2">
-      <c r="AE51" s="17" t="s">
+      <c r="AE51" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18"/>
-      <c r="AI51" s="18"/>
-      <c r="AJ51" s="19"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="21"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="P37:U37"/>
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="P39:U39"/>
-    <mergeCell ref="P40:U40"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="C27:G28"/>
-    <mergeCell ref="C25:G26"/>
-    <mergeCell ref="C23:G24"/>
-    <mergeCell ref="C21:G22"/>
     <mergeCell ref="AE51:AJ51"/>
     <mergeCell ref="AE42:AJ42"/>
     <mergeCell ref="AE43:AJ43"/>
@@ -14631,6 +14618,23 @@
     <mergeCell ref="AE48:AJ48"/>
     <mergeCell ref="AE49:AJ49"/>
     <mergeCell ref="AE50:AJ50"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="C27:G28"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="C23:G24"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="P37:U37"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="P39:U39"/>
+    <mergeCell ref="P40:U40"/>
+    <mergeCell ref="C38:H38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
